--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -23,9 +23,168 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>TestSuit LOGIN PAGE</t>
+  </si>
+  <si>
+    <t>TC 01</t>
+  </si>
+  <si>
+    <t>verify page url</t>
+  </si>
+  <si>
+    <t>1. open chrome browser
+2. go to 'https://www.saucedemo.com/'</t>
+  </si>
+  <si>
+    <t>chrome browser is opened
+login page is opened</t>
+  </si>
+  <si>
+    <t>Swag Labs login page is opened</t>
+  </si>
+  <si>
+    <t>TC 02</t>
+  </si>
+  <si>
+    <t>verify the title page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. open chrome browser and go to  'https://www.saucedemo.com/'
+2. check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Title Page'</t>
+    </r>
+  </si>
+  <si>
+    <t>chrome browser is opened login page is opened 
+Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>TC 03</t>
+  </si>
+  <si>
+    <t>verify the title in header</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. open chrome browser and go to  'https://www.saucedemo.com/'
+2. check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Title in header'</t>
+    </r>
+  </si>
+  <si>
+    <t>chrome browser is opened login page is opened 
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>Title of the pheader is Swag Labs</t>
+  </si>
+  <si>
+    <t>TC 04</t>
+  </si>
+  <si>
+    <t>verify if username field is present</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. open chrome browser and go to  'https://www.saucedemo.com/'
+2. check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Username' field</t>
+    </r>
+  </si>
+  <si>
+    <t>chrome browser is opened login page is opened 
+username field is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Username' field is present</t>
+  </si>
+  <si>
+    <t>TC 05</t>
+  </si>
+  <si>
+    <t>verify if password field is present</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. open chrome browser and go to  'https://www.saucedemo.com/'
+2. check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Password' field</t>
+    </r>
+  </si>
+  <si>
+    <t>chrome browser is opened login page is opened 
+password field is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Password' field is present</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps To Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +193,52 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -51,12 +246,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +621,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:90" s="16" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:90" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+    </row>
+    <row r="3" spans="1:90" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="8"/>
+      <c r="CK3" s="8"/>
+      <c r="CL3" s="8"/>
+    </row>
+    <row r="4" spans="1:90" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+    </row>
+    <row r="5" spans="1:90" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
+      <c r="CI5" s="8"/>
+      <c r="CJ5" s="8"/>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+    </row>
+    <row r="6" spans="1:90" s="16" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8"/>
+      <c r="CF6" s="8"/>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8"/>
+      <c r="CI6" s="8"/>
+      <c r="CJ6" s="8"/>
+      <c r="CK6" s="8"/>
+      <c r="CL6" s="8"/>
+    </row>
+    <row r="7" spans="1:90" s="16" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="8"/>
+      <c r="BU7" s="8"/>
+      <c r="BV7" s="8"/>
+      <c r="BW7" s="8"/>
+      <c r="BX7" s="8"/>
+      <c r="BY7" s="8"/>
+      <c r="BZ7" s="8"/>
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="8"/>
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="8"/>
+      <c r="CE7" s="8"/>
+      <c r="CF7" s="8"/>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="8"/>
+      <c r="CI7" s="8"/>
+      <c r="CJ7" s="8"/>
+      <c r="CK7" s="8"/>
+      <c r="CL7" s="8"/>
+    </row>
+    <row r="8" spans="1:90" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="8"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="8"/>
+    </row>
+    <row r="9" spans="1:90" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="8"/>
+      <c r="CB9" s="8"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
+      <c r="CI9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+    </row>
+    <row r="10" spans="1:90" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="8"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="8"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="BZ10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CB10" s="8"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="8"/>
+      <c r="CF10" s="8"/>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="8"/>
+      <c r="CI10" s="8"/>
+      <c r="CJ10" s="8"/>
+      <c r="CK10" s="8"/>
+      <c r="CL10" s="8"/>
+    </row>
+    <row r="11" spans="1:90" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+      <c r="BQ11" s="8"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="8"/>
+      <c r="BT11" s="8"/>
+      <c r="BU11" s="8"/>
+      <c r="BV11" s="8"/>
+      <c r="BW11" s="8"/>
+      <c r="BX11" s="8"/>
+      <c r="BY11" s="8"/>
+      <c r="BZ11" s="8"/>
+      <c r="CA11" s="8"/>
+      <c r="CB11" s="8"/>
+      <c r="CC11" s="8"/>
+      <c r="CD11" s="8"/>
+      <c r="CE11" s="8"/>
+      <c r="CF11" s="8"/>
+      <c r="CG11" s="8"/>
+      <c r="CH11" s="8"/>
+      <c r="CI11" s="8"/>
+      <c r="CJ11" s="8"/>
+      <c r="CK11" s="8"/>
+      <c r="CL11" s="8"/>
+    </row>
+    <row r="12" spans="1:90" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:90" s="16" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:90" s="16" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>verify if the login button works</t>
-  </si>
-  <si>
-    <t>1. open chrome browser and go to  "https://www.saucedemo.com/"
-2. input "standard_user" as username in "Username" field
-3. input "secret_sauce" as password in "Password" field
-4. click "Login" button</t>
   </si>
   <si>
     <t>TC 13</t>
@@ -630,13 +624,1119 @@
   </si>
   <si>
     <t>user is redirected to the inventory page</t>
+  </si>
+  <si>
+    <t>TC 00</t>
+  </si>
+  <si>
+    <t>TestSuit LOGGING IN</t>
+  </si>
+  <si>
+    <t>TC 14</t>
+  </si>
+  <si>
+    <r>
+      <t>login with correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> credentials</t>
+    </r>
+  </si>
+  <si>
+    <t>*** PRECONDITIONS: Every Test Case starts from Login Page (url = "https://www.saucedemo.com/")***</t>
+  </si>
+  <si>
+    <t>user is successfully logged in</t>
+  </si>
+  <si>
+    <t>login with correct username and incorrect password</t>
+  </si>
+  <si>
+    <t>user will failed to login</t>
+  </si>
+  <si>
+    <t>login with incorrect username and correct password</t>
+  </si>
+  <si>
+    <t>login with blank username and password</t>
+  </si>
+  <si>
+    <t>login with blank username and correct password</t>
+  </si>
+  <si>
+    <t>login with blank username and incorrect password</t>
+  </si>
+  <si>
+    <t>login with correct username and blank password</t>
+  </si>
+  <si>
+    <t>login with incorrect username and blank password</t>
+  </si>
+  <si>
+    <t>verify the error message when username and password do not match</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
+  </si>
+  <si>
+    <t>verify the error message for blank username field</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username is required</t>
+  </si>
+  <si>
+    <t>verify the error message for blank password field</t>
+  </si>
+  <si>
+    <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <r>
+      <t>1. open chrome browser and go to  "https://www.saucedemo.com/"
+2. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+3. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"secret_sauce" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+4. click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>user is not logged in</t>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as username in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Username" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Blank'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Password" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. click the "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as username in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Username" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Blank'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.  click the "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as username in "Username" field
+2. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "secret_sauce123" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.  click the "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Blank'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Username" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. input "secret_sauce" as password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.  click the "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as username in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Username" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Blank'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Password" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.  click the "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <t>user will fail to login</t>
+  </si>
+  <si>
+    <t>user will successfully log in</t>
+  </si>
+  <si>
+    <t>login with incorrect credentials</t>
+  </si>
+  <si>
+    <t>TC 15</t>
+  </si>
+  <si>
+    <t>TC 16</t>
+  </si>
+  <si>
+    <t>TC 17</t>
+  </si>
+  <si>
+    <t>TC 18</t>
+  </si>
+  <si>
+    <t>TC 19</t>
+  </si>
+  <si>
+    <t>TC 20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in "Password" field
+2.  click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"standard_user" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Username" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+3. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Login" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Username" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+3. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user123" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Username" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "secret_sauce"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+3. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Username" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "secret_sauce123" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>field
+3. click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "secret_sauce123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2.  click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +1769,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -690,7 +1803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -801,11 +1914,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -844,26 +1994,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,6 +2023,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL15"/>
+  <dimension ref="A1:CL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1212,7 +2377,7 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1230,12 +2395,12 @@
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1316,18 +2481,18 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2244,19 +3409,19 @@
     <row r="15" spans="1:90" s="7" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2271,8 +3436,240 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
+    <row r="16" spans="1:90" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
@@ -2280,11 +3677,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2296,7 +3688,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -626,9 +626,6 @@
     <t>user is redirected to the inventory page</t>
   </si>
   <si>
-    <t>TC 00</t>
-  </si>
-  <si>
     <t>TestSuit LOGGING IN</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>login with correct username and incorrect password</t>
   </si>
   <si>
-    <t>user will failed to login</t>
-  </si>
-  <si>
     <t>login with incorrect username and correct password</t>
   </si>
   <si>
@@ -670,30 +664,6 @@
   </si>
   <si>
     <t>login with blank username and incorrect password</t>
-  </si>
-  <si>
-    <t>login with correct username and blank password</t>
-  </si>
-  <si>
-    <t>login with incorrect username and blank password</t>
-  </si>
-  <si>
-    <t>verify the error message when username and password do not match</t>
-  </si>
-  <si>
-    <t>Epic sadface: Username and password do not match any user in this service</t>
-  </si>
-  <si>
-    <t>verify the error message for blank username field</t>
-  </si>
-  <si>
-    <t>Epic sadface: Username is required</t>
-  </si>
-  <si>
-    <t>verify the error message for blank password field</t>
-  </si>
-  <si>
-    <t>Epic sadface: Password is required</t>
   </si>
   <si>
     <r>
@@ -795,401 +765,6 @@
   </si>
   <si>
     <t>user is not logged in</t>
-  </si>
-  <si>
-    <r>
-      <t>1. input</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"standard_user"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as username in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Username" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. leave </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Blank'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Password" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. click the "Login" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. input</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "standard_user123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as username in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Username" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. leave </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Blank'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Password" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.  click the "Login" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"standard_user"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as username in "Username" field
-2. input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "secret_sauce123" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as password in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Password" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.  click the "Login" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. leave </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Blank'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Username" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. input "secret_sauce" as password in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Password" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.  click the "Login" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. input</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "standard_user"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as username in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Username" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. leave </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Blank'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Password" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.  click the "Login" button</t>
-    </r>
   </si>
   <si>
     <t>user will fail to login</t>
@@ -1736,7 +1311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,14 +1341,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1994,17 +1561,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,30 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2331,7 +1898,7 @@
   <dimension ref="A1:CL28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B24" sqref="B24:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2377,30 +1944,30 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2481,18 +2048,18 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3415,7 +2982,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>78</v>
@@ -3437,16 +3004,16 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:90" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3461,21 +3028,21 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3492,184 +3059,138 @@
     </row>
     <row r="18" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="24" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>99</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
@@ -3677,6 +3198,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -1567,35 +1567,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1614,6 +1596,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:CL28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1944,30 +1944,30 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2048,18 +2048,18 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3007,13 +3007,13 @@
       <c r="A16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3191,6 +3191,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
@@ -3198,12 +3204,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -1277,6 +1277,72 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2.  click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>login with correct username and blank password</t>
+  </si>
+  <si>
+    <t>TC 21</t>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Username" </t>
     </r>
     <r>
       <rPr>
@@ -1567,17 +1633,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,24 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1897,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1944,30 +2010,30 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2048,18 +2114,18 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3007,13 +3073,13 @@
       <c r="A16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3159,11 +3225,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -3191,12 +3281,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
@@ -3204,6 +3288,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -1352,6 +1352,447 @@
       </rPr>
       <t xml:space="preserve">field
 2.  click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>TC 22</t>
+  </si>
+  <si>
+    <t>login with incorrect username and blank password</t>
+  </si>
+  <si>
+    <r>
+      <t>1. input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "standard_user123" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  "Username" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>TC 23</t>
+  </si>
+  <si>
+    <t>verify the error message when username and password do not match</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+2. input  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+3. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">error message will appear </t>
+  </si>
+  <si>
+    <t>TC 24</t>
+  </si>
+  <si>
+    <t>verify exiting the error message when username and password do not match</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+2. input  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+3. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+4. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"X"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mark on error message</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">error message will disappear </t>
+  </si>
+  <si>
+    <t>error message is  not visible</t>
+  </si>
+  <si>
+    <t>verify the error message for blank username field</t>
+  </si>
+  <si>
+    <t>TC 25</t>
+  </si>
+  <si>
+    <t>verify the error message for blank password field</t>
+  </si>
+  <si>
+    <t>TC 26</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"secret_sauce"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field
+2. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>error message : "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <t>error message : "Epic sadface: Username is required"</t>
+  </si>
+  <si>
+    <t>error message : "Epic sadface: Password is required"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"standard_user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field
+2. click the </t>
     </r>
     <r>
       <rPr>
@@ -1633,35 +2074,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1680,6 +2103,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1961,10 +2402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL28"/>
+  <dimension ref="A1:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2010,30 +2452,30 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2114,18 +2556,18 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3073,13 +3515,13 @@
       <c r="A16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3255,32 +3697,164 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:18" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="14"/>
+    <row r="28" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
@@ -3288,12 +3862,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LogIn page" sheetId="1" r:id="rId1"/>
-    <sheet name="UN&amp;Pass" sheetId="2" r:id="rId2"/>
+    <sheet name="UN&amp;Pass" sheetId="2" r:id="rId1"/>
+    <sheet name="LogIn page" sheetId="1" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>TestSuit LOGIN PAGE</t>
-  </si>
-  <si>
-    <t>TC 01</t>
   </si>
   <si>
     <t>verify page url</t>
@@ -40,15 +38,6 @@
 login page is opened</t>
   </si>
   <si>
-    <t>Swag Labs login page is opened</t>
-  </si>
-  <si>
-    <t>TC 02</t>
-  </si>
-  <si>
-    <t>verify the title page</t>
-  </si>
-  <si>
     <t>chrome browser is opened login page is opened 
 Title of the page is Swag Labs</t>
   </si>
@@ -56,9 +45,6 @@
     <t>Title of the page is Swag Labs</t>
   </si>
   <si>
-    <t>TC 03</t>
-  </si>
-  <si>
     <t>verify the title in header</t>
   </si>
   <si>
@@ -66,9 +52,6 @@
 Title of the header is Swag Labs</t>
   </si>
   <si>
-    <t>TC 04</t>
-  </si>
-  <si>
     <t>verify if username field is present</t>
   </si>
   <si>
@@ -76,9 +59,6 @@
 username field is present</t>
   </si>
   <si>
-    <t>TC 05</t>
-  </si>
-  <si>
     <t>verify if password field is present</t>
   </si>
   <si>
@@ -104,9 +84,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>TC 06</t>
-  </si>
-  <si>
     <t>verify if login button is present</t>
   </si>
   <si>
@@ -114,15 +91,9 @@
 login button is present</t>
   </si>
   <si>
-    <t>TC 07</t>
-  </si>
-  <si>
     <t>verify if username field is enabled</t>
   </si>
   <si>
-    <t>TC 08</t>
-  </si>
-  <si>
     <t>verify if password field is enabled</t>
   </si>
   <si>
@@ -151,9 +122,6 @@
   </si>
   <si>
     <t>visual_user</t>
-  </si>
-  <si>
-    <t>TC 09</t>
   </si>
   <si>
     <t>verify if login button is enabled</t>
@@ -163,22 +131,13 @@
 login button is clickable</t>
   </si>
   <si>
-    <t>TC 10</t>
-  </si>
-  <si>
     <t>verify the label of username field</t>
   </si>
   <si>
-    <t>TC 11</t>
-  </si>
-  <si>
     <t>verify the label of password field</t>
   </si>
   <si>
     <t>verify the label of login button</t>
-  </si>
-  <si>
-    <t>TC 12</t>
   </si>
   <si>
     <t>Title of the header is Swag Labs</t>
@@ -613,9 +572,6 @@
   </si>
   <si>
     <t>verify if the login button works</t>
-  </si>
-  <si>
-    <t>TC 13</t>
   </si>
   <si>
     <t>chrome browser is opened login page is opened 
@@ -629,9 +585,6 @@
     <t>TestSuit LOGGING IN</t>
   </si>
   <si>
-    <t>TC 14</t>
-  </si>
-  <si>
     <r>
       <t>login with correct</t>
     </r>
@@ -776,24 +729,6 @@
     <t>login with incorrect credentials</t>
   </si>
   <si>
-    <t>TC 15</t>
-  </si>
-  <si>
-    <t>TC 16</t>
-  </si>
-  <si>
-    <t>TC 17</t>
-  </si>
-  <si>
-    <t>TC 18</t>
-  </si>
-  <si>
-    <t>TC 19</t>
-  </si>
-  <si>
-    <t>TC 20</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. click the </t>
     </r>
@@ -1310,9 +1245,6 @@
     <t>login with correct username and blank password</t>
   </si>
   <si>
-    <t>TC 21</t>
-  </si>
-  <si>
     <r>
       <t>1. input</t>
     </r>
@@ -1373,9 +1305,6 @@
     </r>
   </si>
   <si>
-    <t>TC 22</t>
-  </si>
-  <si>
     <t>login with incorrect username and blank password</t>
   </si>
   <si>
@@ -1439,9 +1368,6 @@
     </r>
   </si>
   <si>
-    <t>TC 23</t>
-  </si>
-  <si>
     <t>verify the error message when username and password do not match</t>
   </si>
   <si>
@@ -1545,9 +1471,6 @@
     <t xml:space="preserve">error message will appear </t>
   </si>
   <si>
-    <t>TC 24</t>
-  </si>
-  <si>
     <t>verify exiting the error message when username and password do not match</t>
   </si>
   <si>
@@ -1676,13 +1599,7 @@
     <t>verify the error message for blank username field</t>
   </si>
   <si>
-    <t>TC 25</t>
-  </si>
-  <si>
     <t>verify the error message for blank password field</t>
-  </si>
-  <si>
-    <t>TC 26</t>
   </si>
   <si>
     <r>
@@ -1812,13 +1729,140 @@
       </rPr>
       <t xml:space="preserve"> button</t>
     </r>
+  </si>
+  <si>
+    <t>verify the url</t>
+  </si>
+  <si>
+    <t>TestSuit PRODUCTS PAGE</t>
+  </si>
+  <si>
+    <t>TC LP01</t>
+  </si>
+  <si>
+    <t>TC LP02</t>
+  </si>
+  <si>
+    <t>TC LP03</t>
+  </si>
+  <si>
+    <t>TC LP04</t>
+  </si>
+  <si>
+    <t>TC LP05</t>
+  </si>
+  <si>
+    <t>TC LP06</t>
+  </si>
+  <si>
+    <t>TC LP07</t>
+  </si>
+  <si>
+    <t>TC LP08</t>
+  </si>
+  <si>
+    <t>TC LP09</t>
+  </si>
+  <si>
+    <t>TC LP10</t>
+  </si>
+  <si>
+    <t>TC LP11</t>
+  </si>
+  <si>
+    <t>TC LP12</t>
+  </si>
+  <si>
+    <t>TC LP13</t>
+  </si>
+  <si>
+    <t>TC LI14</t>
+  </si>
+  <si>
+    <t>TC LI15</t>
+  </si>
+  <si>
+    <t>TC LI16</t>
+  </si>
+  <si>
+    <t>TC LI17</t>
+  </si>
+  <si>
+    <t>TC LI18</t>
+  </si>
+  <si>
+    <t>TC LI19</t>
+  </si>
+  <si>
+    <t>TC LI20</t>
+  </si>
+  <si>
+    <t>TC LI21</t>
+  </si>
+  <si>
+    <t>TC LI22</t>
+  </si>
+  <si>
+    <t>TC LI23</t>
+  </si>
+  <si>
+    <t>TC LI24</t>
+  </si>
+  <si>
+    <t>TC LI25</t>
+  </si>
+  <si>
+    <t>TC LI26</t>
+  </si>
+  <si>
+    <t>verify the page title</t>
+  </si>
+  <si>
+    <t>1. check the url (https://www.saucedemo.com/inventory.html)</t>
+  </si>
+  <si>
+    <t>*** PRECONDITIONS: Every Test Case starts from https://www.saucedemo.com/inventory.html***</t>
+  </si>
+  <si>
+    <r>
+      <t>1. open chrome browser and go to  "https://www.saucedemo.com/inventory.html"
+2. check the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Title" of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <t>chrome browser is opened
+products page is opened</t>
+  </si>
+  <si>
+    <t>url is "https://www.saucedemo.com/inventory.html"</t>
+  </si>
+  <si>
+    <t>url is "https://www.saucedemo.com/"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1856,6 +1900,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1877,7 +1935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1896,19 +1954,6 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1958,55 +2003,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -2025,102 +2026,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2402,11 +2407,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL29"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D31:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CL28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2419,26 +2500,26 @@
     <col min="6" max="6" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="6"/>
+    <row r="1" spans="1:90" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2451,31 +2532,31 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:90" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:90" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2555,19 +2636,29 @@
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
     </row>
-    <row r="3" spans="1:90" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+    <row r="3" spans="1:90" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2647,24 +2738,24 @@
       <c r="CK3" s="1"/>
       <c r="CL3" s="1"/>
     </row>
-    <row r="4" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2749,24 +2840,24 @@
       <c r="CK4" s="1"/>
       <c r="CL4" s="1"/>
     </row>
-    <row r="5" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1"/>
+    <row r="5" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2851,24 +2942,24 @@
       <c r="CK5" s="1"/>
       <c r="CL5" s="1"/>
     </row>
-    <row r="6" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4"/>
+    <row r="6" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2953,24 +3044,24 @@
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
     </row>
-    <row r="7" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="D7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2982,97 +3073,25 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
-      <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-      <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
     </row>
-    <row r="8" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:90" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3084,25 +3103,97 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
     </row>
-    <row r="9" spans="1:90" s="7" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8"/>
+    <row r="9" spans="1:90" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3187,24 +3278,24 @@
       <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
     </row>
-    <row r="10" spans="1:90" s="7" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="D10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3289,24 +3380,24 @@
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
     </row>
-    <row r="11" spans="1:90" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1"/>
+    <row r="11" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3318,97 +3409,25 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
     </row>
-    <row r="12" spans="1:90" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3421,24 +3440,24 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:90" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="4"/>
+    <row r="13" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3451,24 +3470,24 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:90" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1"/>
+    <row r="14" spans="1:90" s="4" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3481,24 +3500,18 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:90" s="7" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="1"/>
+    <row r="15" spans="1:90" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3511,18 +3524,24 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:90" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3535,156 +3554,162 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="E19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="20" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
+      <c r="E22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="E24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3697,24 +3722,24 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="2" t="s">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="F25" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3727,24 +3752,24 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="1"/>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3757,24 +3782,24 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="1"/>
+    <row r="27" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3787,24 +3812,24 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="1"/>
+    <row r="28" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3817,129 +3842,119 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>34</v>
-      </c>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+    <row r="3" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
+    <row r="4" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT BOOTCAMP\Swag Labs manual testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\manuelno testiranje\Swag Labs manual testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE57B3B-64F5-4706-B59F-DF6A6E85BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UN&amp;Pass" sheetId="2" r:id="rId1"/>
-    <sheet name="LogIn page" sheetId="1" r:id="rId2"/>
-    <sheet name="Products" sheetId="3" r:id="rId3"/>
+    <sheet name="LogIn page" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="UN&amp;Pass" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>TestSuit LOGIN PAGE</t>
+  </si>
+  <si>
+    <t>TC 01</t>
   </si>
   <si>
     <t>verify page url</t>
@@ -38,6 +42,15 @@
 login page is opened</t>
   </si>
   <si>
+    <t>Swag Labs login page is opened</t>
+  </si>
+  <si>
+    <t>TC 02</t>
+  </si>
+  <si>
+    <t>verify the title page</t>
+  </si>
+  <si>
     <t>chrome browser is opened login page is opened 
 Title of the page is Swag Labs</t>
   </si>
@@ -45,6 +58,9 @@
     <t>Title of the page is Swag Labs</t>
   </si>
   <si>
+    <t>TC 03</t>
+  </si>
+  <si>
     <t>verify the title in header</t>
   </si>
   <si>
@@ -52,6 +68,9 @@
 Title of the header is Swag Labs</t>
   </si>
   <si>
+    <t>TC 04</t>
+  </si>
+  <si>
     <t>verify if username field is present</t>
   </si>
   <si>
@@ -59,6 +78,9 @@
 username field is present</t>
   </si>
   <si>
+    <t>TC 05</t>
+  </si>
+  <si>
     <t>verify if password field is present</t>
   </si>
   <si>
@@ -84,6 +106,9 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>TC 06</t>
+  </si>
+  <si>
     <t>verify if login button is present</t>
   </si>
   <si>
@@ -91,9 +116,15 @@
 login button is present</t>
   </si>
   <si>
+    <t>TC 07</t>
+  </si>
+  <si>
     <t>verify if username field is enabled</t>
   </si>
   <si>
+    <t>TC 08</t>
+  </si>
+  <si>
     <t>verify if password field is enabled</t>
   </si>
   <si>
@@ -122,6 +153,9 @@
   </si>
   <si>
     <t>visual_user</t>
+  </si>
+  <si>
+    <t>TC 09</t>
   </si>
   <si>
     <t>verify if login button is enabled</t>
@@ -131,13 +165,22 @@
 login button is clickable</t>
   </si>
   <si>
+    <t>TC 10</t>
+  </si>
+  <si>
     <t>verify the label of username field</t>
   </si>
   <si>
+    <t>TC 11</t>
+  </si>
+  <si>
     <t>verify the label of password field</t>
   </si>
   <si>
     <t>verify the label of login button</t>
+  </si>
+  <si>
+    <t>TC 12</t>
   </si>
   <si>
     <t>Title of the header is Swag Labs</t>
@@ -572,6 +615,9 @@
   </si>
   <si>
     <t>verify if the login button works</t>
+  </si>
+  <si>
+    <t>TC 13</t>
   </si>
   <si>
     <t>chrome browser is opened login page is opened 
@@ -585,6 +631,9 @@
     <t>TestSuit LOGGING IN</t>
   </si>
   <si>
+    <t>TC 14</t>
+  </si>
+  <si>
     <r>
       <t>login with correct</t>
     </r>
@@ -729,6 +778,24 @@
     <t>login with incorrect credentials</t>
   </si>
   <si>
+    <t>TC 15</t>
+  </si>
+  <si>
+    <t>TC 16</t>
+  </si>
+  <si>
+    <t>TC 17</t>
+  </si>
+  <si>
+    <t>TC 18</t>
+  </si>
+  <si>
+    <t>TC 19</t>
+  </si>
+  <si>
+    <t>TC 20</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. click the </t>
     </r>
@@ -1245,6 +1312,9 @@
     <t>login with correct username and blank password</t>
   </si>
   <si>
+    <t>TC 21</t>
+  </si>
+  <si>
     <r>
       <t>1. input</t>
     </r>
@@ -1305,6 +1375,9 @@
     </r>
   </si>
   <si>
+    <t>TC 22</t>
+  </si>
+  <si>
     <t>login with incorrect username and blank password</t>
   </si>
   <si>
@@ -1368,6 +1441,9 @@
     </r>
   </si>
   <si>
+    <t>TC 23</t>
+  </si>
+  <si>
     <t>verify the error message when username and password do not match</t>
   </si>
   <si>
@@ -1471,6 +1547,9 @@
     <t xml:space="preserve">error message will appear </t>
   </si>
   <si>
+    <t>TC 24</t>
+  </si>
+  <si>
     <t>verify exiting the error message when username and password do not match</t>
   </si>
   <si>
@@ -1599,7 +1678,13 @@
     <t>verify the error message for blank username field</t>
   </si>
   <si>
+    <t>TC 25</t>
+  </si>
+  <si>
     <t>verify the error message for blank password field</t>
+  </si>
+  <si>
+    <t>TC 26</t>
   </si>
   <si>
     <r>
@@ -1729,140 +1814,13 @@
       </rPr>
       <t xml:space="preserve"> button</t>
     </r>
-  </si>
-  <si>
-    <t>verify the url</t>
-  </si>
-  <si>
-    <t>TestSuit PRODUCTS PAGE</t>
-  </si>
-  <si>
-    <t>TC LP01</t>
-  </si>
-  <si>
-    <t>TC LP02</t>
-  </si>
-  <si>
-    <t>TC LP03</t>
-  </si>
-  <si>
-    <t>TC LP04</t>
-  </si>
-  <si>
-    <t>TC LP05</t>
-  </si>
-  <si>
-    <t>TC LP06</t>
-  </si>
-  <si>
-    <t>TC LP07</t>
-  </si>
-  <si>
-    <t>TC LP08</t>
-  </si>
-  <si>
-    <t>TC LP09</t>
-  </si>
-  <si>
-    <t>TC LP10</t>
-  </si>
-  <si>
-    <t>TC LP11</t>
-  </si>
-  <si>
-    <t>TC LP12</t>
-  </si>
-  <si>
-    <t>TC LP13</t>
-  </si>
-  <si>
-    <t>TC LI14</t>
-  </si>
-  <si>
-    <t>TC LI15</t>
-  </si>
-  <si>
-    <t>TC LI16</t>
-  </si>
-  <si>
-    <t>TC LI17</t>
-  </si>
-  <si>
-    <t>TC LI18</t>
-  </si>
-  <si>
-    <t>TC LI19</t>
-  </si>
-  <si>
-    <t>TC LI20</t>
-  </si>
-  <si>
-    <t>TC LI21</t>
-  </si>
-  <si>
-    <t>TC LI22</t>
-  </si>
-  <si>
-    <t>TC LI23</t>
-  </si>
-  <si>
-    <t>TC LI24</t>
-  </si>
-  <si>
-    <t>TC LI25</t>
-  </si>
-  <si>
-    <t>TC LI26</t>
-  </si>
-  <si>
-    <t>verify the page title</t>
-  </si>
-  <si>
-    <t>1. check the url (https://www.saucedemo.com/inventory.html)</t>
-  </si>
-  <si>
-    <t>*** PRECONDITIONS: Every Test Case starts from https://www.saucedemo.com/inventory.html***</t>
-  </si>
-  <si>
-    <r>
-      <t>1. open chrome browser and go to  "https://www.saucedemo.com/inventory.html"
-2. check the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Title" of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <t>chrome browser is opened
-products page is opened</t>
-  </si>
-  <si>
-    <t>url is "https://www.saucedemo.com/inventory.html"</t>
-  </si>
-  <si>
-    <t>url is "https://www.saucedemo.com/"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,20 +1858,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1935,7 +1879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1972,61 +1916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2045,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2068,64 +1957,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2406,118 +2289,1517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CL29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="25.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:90" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:90" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+    </row>
+    <row r="3" spans="1:90" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+    </row>
+    <row r="4" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
+      <c r="CJ4" s="20"/>
+      <c r="CK4" s="20"/>
+      <c r="CL4" s="20"/>
+    </row>
+    <row r="5" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
+      <c r="CJ5" s="20"/>
+      <c r="CK5" s="20"/>
+      <c r="CL5" s="20"/>
+    </row>
+    <row r="6" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
+    </row>
+    <row r="7" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+    </row>
+    <row r="8" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:90" s="19" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20"/>
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20"/>
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20"/>
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20"/>
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20"/>
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20"/>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="1:90" s="19" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:90" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="20"/>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:90" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="1:90" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:90" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:90" s="19" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="1:90" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="1:18" s="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+    </row>
+    <row r="18" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="1:18" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="1:18" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="1:18" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="13">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C324449E-443A-437C-A40E-C012BA507075}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
@@ -2532,1429 +3814,82 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:90" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-    </row>
-    <row r="3" spans="1:90" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-    </row>
-    <row r="4" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-    </row>
-    <row r="5" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-    </row>
-    <row r="6" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
-      <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-    </row>
-    <row r="7" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:90" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-    </row>
-    <row r="9" spans="1:90" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-    </row>
-    <row r="10" spans="1:90" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-    </row>
-    <row r="11" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:90" s="4" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:90" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:90" s="4" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B15:F15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+    <row r="1" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>137</v>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>4</v>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\manuelno testiranje\Swag Labs manual testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0D1F8-5E5E-4316-A1A8-02F2F19047CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5797F-498A-4B17-A83D-D11CB9839E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -1871,6 +1871,43 @@
     </r>
   </si>
   <si>
+    <t>products page is opened
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>verify the title in the header</t>
+  </si>
+  <si>
+    <t>verify the title of the page</t>
+  </si>
+  <si>
+    <t>Swag Labs products page is opened
+url is "https://www.saucedemo.com/inventory.html"</t>
+  </si>
+  <si>
+    <t>Swag Labs products page is opened
+Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>Swag Labs login page is opened
+url is "https://www.saucedemo.com/"</t>
+  </si>
+  <si>
+    <t>Swag Labs login page is opened
+Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>Swag Labs login page is opened
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>Swag Labs products page is opened
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>verify if the menu button is present</t>
+  </si>
+  <si>
     <r>
       <t>1. login with valid credentials
 2. check the "</t>
@@ -1883,57 +1920,124 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Title"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in header</t>
-    </r>
+      <t>Title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" in header</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. check the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>"Menu" button is visible on Swag Labs products page</t>
   </si>
   <si>
     <t>products page is opened
-Title of the header is Swag Labs</t>
-  </si>
-  <si>
-    <t>verify the title in the header</t>
-  </si>
-  <si>
-    <t>verify the title of the page</t>
-  </si>
-  <si>
-    <t>Swag Labs products page is opened
-url is "https://www.saucedemo.com/inventory.html"</t>
-  </si>
-  <si>
-    <t>Swag Labs products page is opened
-Title of the page is Swag Labs</t>
-  </si>
-  <si>
-    <t>Swag Labs login page is opened
-url is "https://www.saucedemo.com/"</t>
-  </si>
-  <si>
-    <t>Swag Labs login page is opened
-Title of the page is Swag Labs</t>
-  </si>
-  <si>
-    <t>Swag Labs login page is opened
-Title of the header is Swag Labs</t>
-  </si>
-  <si>
-    <t>Swag Labs products page is opened
-Title of the header is Swag Labs</t>
+menu button is visible</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. check the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>verify if the cart icon is present</t>
+  </si>
+  <si>
+    <t>products page is opened
+cart icon is visible</t>
+  </si>
+  <si>
+    <t>"Cart" button is visible on Swag Labs products page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1972,27 +2076,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2096,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2116,19 +2221,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2137,33 +2233,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,13 +2264,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2190,11 +2294,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2482,23 +2601,22 @@
   <dimension ref="A1:CL29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="57" style="21" customWidth="1"/>
-    <col min="7" max="7" width="64.7109375" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
+    <col min="7" max="7" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -2517,1427 +2635,1421 @@
       <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:90" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:90" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+    </row>
+    <row r="3" spans="1:90" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+    </row>
+    <row r="4" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="18"/>
-      <c r="CI2" s="18"/>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-    </row>
-    <row r="3" spans="1:90" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="18"/>
-      <c r="CE3" s="18"/>
-      <c r="CF3" s="18"/>
-      <c r="CG3" s="18"/>
-      <c r="CH3" s="18"/>
-      <c r="CI3" s="18"/>
-      <c r="CJ3" s="18"/>
-      <c r="CK3" s="18"/>
-      <c r="CL3" s="18"/>
-    </row>
-    <row r="4" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+    </row>
+    <row r="5" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18"/>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="18"/>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18"/>
-      <c r="CF4" s="18"/>
-      <c r="CG4" s="18"/>
-      <c r="CH4" s="18"/>
-      <c r="CI4" s="18"/>
-      <c r="CJ4" s="18"/>
-      <c r="CK4" s="18"/>
-      <c r="CL4" s="18"/>
-    </row>
-    <row r="5" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="18"/>
-      <c r="BK5" s="18"/>
-      <c r="BL5" s="18"/>
-      <c r="BM5" s="18"/>
-      <c r="BN5" s="18"/>
-      <c r="BO5" s="18"/>
-      <c r="BP5" s="18"/>
-      <c r="BQ5" s="18"/>
-      <c r="BR5" s="18"/>
-      <c r="BS5" s="18"/>
-      <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
-      <c r="BV5" s="18"/>
-      <c r="BW5" s="18"/>
-      <c r="BX5" s="18"/>
-      <c r="BY5" s="18"/>
-      <c r="BZ5" s="18"/>
-      <c r="CA5" s="18"/>
-      <c r="CB5" s="18"/>
-      <c r="CC5" s="18"/>
-      <c r="CD5" s="18"/>
-      <c r="CE5" s="18"/>
-      <c r="CF5" s="18"/>
-      <c r="CG5" s="18"/>
-      <c r="CH5" s="18"/>
-      <c r="CI5" s="18"/>
-      <c r="CJ5" s="18"/>
-      <c r="CK5" s="18"/>
-      <c r="CL5" s="18"/>
-    </row>
-    <row r="6" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+    </row>
+    <row r="6" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="18"/>
-      <c r="BM6" s="18"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="18"/>
-      <c r="BQ6" s="18"/>
-      <c r="BR6" s="18"/>
-      <c r="BS6" s="18"/>
-      <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="18"/>
-      <c r="BW6" s="18"/>
-      <c r="BX6" s="18"/>
-      <c r="BY6" s="18"/>
-      <c r="BZ6" s="18"/>
-      <c r="CA6" s="18"/>
-      <c r="CB6" s="18"/>
-      <c r="CC6" s="18"/>
-      <c r="CD6" s="18"/>
-      <c r="CE6" s="18"/>
-      <c r="CF6" s="18"/>
-      <c r="CG6" s="18"/>
-      <c r="CH6" s="18"/>
-      <c r="CI6" s="18"/>
-      <c r="CJ6" s="18"/>
-      <c r="CK6" s="18"/>
-      <c r="CL6" s="18"/>
-    </row>
-    <row r="7" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+    </row>
+    <row r="7" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="18"/>
-      <c r="BF7" s="18"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="18"/>
-      <c r="BI7" s="18"/>
-      <c r="BJ7" s="18"/>
-      <c r="BK7" s="18"/>
-      <c r="BL7" s="18"/>
-      <c r="BM7" s="18"/>
-      <c r="BN7" s="18"/>
-      <c r="BO7" s="18"/>
-      <c r="BP7" s="18"/>
-      <c r="BQ7" s="18"/>
-      <c r="BR7" s="18"/>
-      <c r="BS7" s="18"/>
-      <c r="BT7" s="18"/>
-      <c r="BU7" s="18"/>
-      <c r="BV7" s="18"/>
-      <c r="BW7" s="18"/>
-      <c r="BX7" s="18"/>
-      <c r="BY7" s="18"/>
-      <c r="BZ7" s="18"/>
-      <c r="CA7" s="18"/>
-      <c r="CB7" s="18"/>
-      <c r="CC7" s="18"/>
-      <c r="CD7" s="18"/>
-      <c r="CE7" s="18"/>
-      <c r="CF7" s="18"/>
-      <c r="CG7" s="18"/>
-      <c r="CH7" s="18"/>
-      <c r="CI7" s="18"/>
-      <c r="CJ7" s="18"/>
-      <c r="CK7" s="18"/>
-      <c r="CL7" s="18"/>
-    </row>
-    <row r="8" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="14"/>
+      <c r="CJ7" s="14"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+    </row>
+    <row r="8" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:90" s="17" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:90" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18"/>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18"/>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18"/>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18"/>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18"/>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18"/>
-    </row>
-    <row r="10" spans="1:90" s="17" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+    </row>
+    <row r="10" spans="1:90" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
-      <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
-      <c r="BV10" s="18"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="18"/>
-      <c r="BY10" s="18"/>
-      <c r="BZ10" s="18"/>
-      <c r="CA10" s="18"/>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="18"/>
-      <c r="CI10" s="18"/>
-      <c r="CJ10" s="18"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="18"/>
-    </row>
-    <row r="11" spans="1:90" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="14"/>
+      <c r="CE10" s="14"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="14"/>
+      <c r="CJ10" s="14"/>
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+    </row>
+    <row r="11" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="18"/>
-      <c r="BL11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="18"/>
-      <c r="BR11" s="18"/>
-      <c r="BS11" s="18"/>
-      <c r="BT11" s="18"/>
-      <c r="BU11" s="18"/>
-      <c r="BV11" s="18"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="18"/>
-      <c r="BY11" s="18"/>
-      <c r="BZ11" s="18"/>
-      <c r="CA11" s="18"/>
-      <c r="CB11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="18"/>
-      <c r="CG11" s="18"/>
-      <c r="CH11" s="18"/>
-      <c r="CI11" s="18"/>
-      <c r="CJ11" s="18"/>
-      <c r="CK11" s="18"/>
-      <c r="CL11" s="18"/>
-    </row>
-    <row r="12" spans="1:90" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="14"/>
+      <c r="CA11" s="14"/>
+      <c r="CB11" s="14"/>
+      <c r="CC11" s="14"/>
+      <c r="CD11" s="14"/>
+      <c r="CE11" s="14"/>
+      <c r="CF11" s="14"/>
+      <c r="CG11" s="14"/>
+      <c r="CH11" s="14"/>
+      <c r="CI11" s="14"/>
+      <c r="CJ11" s="14"/>
+      <c r="CK11" s="14"/>
+      <c r="CL11" s="14"/>
+    </row>
+    <row r="12" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:90" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:90" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:90" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:90" s="13" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:90" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:90" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="1:18" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-    </row>
-    <row r="28" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3945,6 +4057,12 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.05" top="0.04" bottom="0.01" header="0" footer="0"/>
@@ -4030,25 +4148,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C324449E-443A-437C-A40E-C012BA507075}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="29" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="31.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -4067,7 +4184,7 @@
       <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -4080,161 +4197,276 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\manuelno testiranje\Swag Labs manual testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5797F-498A-4B17-A83D-D11CB9839E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CEF4BB-835F-4DA5-BBE5-946BF63B578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn page" sheetId="1" r:id="rId1"/>
     <sheet name="UN&amp;Pass" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Products page" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -38,44 +49,24 @@
     <t>verify page url</t>
   </si>
   <si>
-    <t>chrome browser is opened
-login page is opened</t>
-  </si>
-  <si>
     <t>TC 02</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-Title of the page is Swag Labs</t>
-  </si>
-  <si>
     <t>TC 03</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-Title of the header is Swag Labs</t>
-  </si>
-  <si>
     <t>TC 04</t>
   </si>
   <si>
     <t>verify if username field is present</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-username field is present</t>
-  </si>
-  <si>
     <t>TC 05</t>
   </si>
   <si>
     <t>verify if password field is present</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-password field is present</t>
-  </si>
-  <si>
     <t>Test Scenario ID</t>
   </si>
   <si>
@@ -100,22 +91,12 @@
     <t>verify if login button is present</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-login button is present</t>
-  </si>
-  <si>
     <t>TC 07</t>
   </si>
   <si>
-    <t>verify if username field is enabled</t>
-  </si>
-  <si>
     <t>TC 08</t>
   </si>
   <si>
-    <t>verify if password field is enabled</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -149,10 +130,6 @@
     <t>verify if login button is enabled</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-login button is clickable</t>
-  </si>
-  <si>
     <t>TC 10</t>
   </si>
   <si>
@@ -169,10 +146,6 @@
   </si>
   <si>
     <t>TC 12</t>
-  </si>
-  <si>
-    <t>chrome browser is opened login page is opened 
-login button is present and the label is "Login"</t>
   </si>
   <si>
     <t>1. open chrome browser
@@ -188,54 +161,12 @@
     <t xml:space="preserve"> "Login" button  is visible</t>
   </si>
   <si>
-    <t>text "standard_user" is visible in the "Username" field</t>
-  </si>
-  <si>
-    <t>text "secret_sauce" is visible in the "Password" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Login" button is clickable</t>
-  </si>
-  <si>
-    <t>placeholder is visible in the "Username" field :Username</t>
-  </si>
-  <si>
-    <t>placeholder is visible in the  "Password" field : Password</t>
-  </si>
-  <si>
-    <t>chrome browser is opened login page is opened 
-text is visible in the "Username" field</t>
-  </si>
-  <si>
-    <t>chrome browser is opened login page is opened 
-text is visible in the "Password" field</t>
-  </si>
-  <si>
-    <t>chrome browser is opened login page is opened 
-placeholder is visible in the "Username" field :Username</t>
-  </si>
-  <si>
-    <t>chrome browser is opened login page is opened 
-placeholder is visible in the  "Password" field : Password</t>
-  </si>
-  <si>
-    <t>the label of login button is "Login"</t>
-  </si>
-  <si>
     <t>verify if the login button works</t>
   </si>
   <si>
     <t>TC 13</t>
   </si>
   <si>
-    <t>chrome browser is opened login page is opened 
-text is visible in the "Password" field
-"Login" button is clickable</t>
-  </si>
-  <si>
-    <t>user is redirected to the inventory page</t>
-  </si>
-  <si>
     <t>TestSuit LOGGING IN</t>
   </si>
   <si>
@@ -258,9 +189,6 @@
     <t>*** PRECONDITIONS: Every Test Case starts from Login Page (url = "https://www.saucedemo.com/")***</t>
   </si>
   <si>
-    <t>user is successfully logged in</t>
-  </si>
-  <si>
     <t>login with correct username and incorrect password</t>
   </si>
   <si>
@@ -274,15 +202,6 @@
   </si>
   <si>
     <t>login with blank username and incorrect password</t>
-  </si>
-  <si>
-    <t>user is not logged in</t>
-  </si>
-  <si>
-    <t>user will fail to login</t>
-  </si>
-  <si>
-    <t>user will successfully log in</t>
   </si>
   <si>
     <t>login with incorrect credentials</t>
@@ -1054,9 +973,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">error message will appear </t>
-  </si>
-  <si>
     <t>TC 24</t>
   </si>
   <si>
@@ -1179,12 +1095,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">error message will disappear </t>
-  </si>
-  <si>
-    <t>error message is  not visible</t>
-  </si>
-  <si>
     <t>verify the error message for blank username field</t>
   </si>
   <si>
@@ -1257,15 +1167,6 @@
     </r>
   </si>
   <si>
-    <t>error message : "Epic sadface: Username and password do not match any user in this service"</t>
-  </si>
-  <si>
-    <t>error message : "Epic sadface: Username is required"</t>
-  </si>
-  <si>
-    <t>error message : "Epic sadface: Password is required"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. input </t>
     </r>
@@ -1789,13 +1690,6 @@
     <t>1. login with valid credentials</t>
   </si>
   <si>
-    <t>products page is opened</t>
-  </si>
-  <si>
-    <t>products page is opened
-Title of the page is Swag Labs</t>
-  </si>
-  <si>
     <t>TC 28</t>
   </si>
   <si>
@@ -1871,18 +1765,10 @@
     </r>
   </si>
   <si>
-    <t>products page is opened
-Title of the header is Swag Labs</t>
-  </si>
-  <si>
     <t>verify the title in the header</t>
   </si>
   <si>
     <t>verify the title of the page</t>
-  </si>
-  <si>
-    <t>Swag Labs products page is opened
-url is "https://www.saucedemo.com/inventory.html"</t>
   </si>
   <si>
     <t>Swag Labs products page is opened
@@ -1890,10 +1776,6 @@
   </si>
   <si>
     <t>Swag Labs login page is opened
-url is "https://www.saucedemo.com/"</t>
-  </si>
-  <si>
-    <t>Swag Labs login page is opened
 Title of the page is Swag Labs</t>
   </si>
   <si>
@@ -1977,10 +1859,6 @@
     <t>"Menu" button is visible on Swag Labs products page</t>
   </si>
   <si>
-    <t>products page is opened
-menu button is visible</t>
-  </si>
-  <si>
     <r>
       <t>1. login with valid credentials
 2. check the "</t>
@@ -2026,18 +1904,504 @@
     <t>verify if the cart icon is present</t>
   </si>
   <si>
-    <t>products page is opened
-cart icon is visible</t>
-  </si>
-  <si>
     <t>"Cart" button is visible on Swag Labs products page</t>
+  </si>
+  <si>
+    <t>verify if the filter button is working</t>
+  </si>
+  <si>
+    <t>TC 31</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. check the s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ub-header "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Products page is opened</t>
+  </si>
+  <si>
+    <t>Swag Labs products page is opened
+Url is "https://www.saucedemo.com/inventory.html"</t>
+  </si>
+  <si>
+    <t>Swag Labs login page is opened
+Url is "https://www.saucedemo.com/"</t>
+  </si>
+  <si>
+    <t>Text "standard_user" is visible in the "Username" field</t>
+  </si>
+  <si>
+    <t>Text "secret_sauce" is visible in the "Password" field</t>
+  </si>
+  <si>
+    <t>Placeholder is visible in the "Username" field :Username</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened
+Login page is opened</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Username field is present</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Password field is present</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Login button is present</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Text is visible in the "Username" field</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Text is visible in the "Password" field</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Login button is clickable</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Placeholder is visible in the "Username" field :Username</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Placeholder is visible in the  "Password" field : Password</t>
+  </si>
+  <si>
+    <t>Placeholder is visible in the  "Password" field : Password</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Login button is present and the label is "Login"</t>
+  </si>
+  <si>
+    <t>The name of login button is "Login"</t>
+  </si>
+  <si>
+    <t>Chrome browser is opened login page is opened 
+Text is visible in the "Password" field
+"Login" button is clickable</t>
+  </si>
+  <si>
+    <t>User is redirected to the inventory page</t>
+  </si>
+  <si>
+    <t>User will successfully log in</t>
+  </si>
+  <si>
+    <t>User will fail to login</t>
+  </si>
+  <si>
+    <t>User is successfully logged in</t>
+  </si>
+  <si>
+    <t>User is not logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message will appear </t>
+  </si>
+  <si>
+    <t>Error message : "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message will disappear </t>
+  </si>
+  <si>
+    <t>Error message is  not visible</t>
+  </si>
+  <si>
+    <t>Error message : "Epic sadface: Username is required"</t>
+  </si>
+  <si>
+    <t>Error message : "Epic sadface: Password is required"</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Title of the page is Swag Labs</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Title of the header is Swag Labs</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Menu button is visible</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Cart icon is visible</t>
+  </si>
+  <si>
+    <t>Pproducts page is opened
+Sub-header title of the page is Products</t>
+  </si>
+  <si>
+    <t>Swag Labs products page is opened
+Sub-header title of the page is Products</t>
+  </si>
+  <si>
+    <t>TC 32</t>
+  </si>
+  <si>
+    <t>verify if the filter button is present</t>
+  </si>
+  <si>
+    <t>verify the sub-header title of the page</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. check the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Filter" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Products page is opened
+Filter button is visible</t>
+  </si>
+  <si>
+    <t>"Filter" button is visible on Swag Labs products page</t>
+  </si>
+  <si>
+    <t>TC 33</t>
+  </si>
+  <si>
+    <t>verify if the menu button is enabled</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. hover over</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrow cursor changes to hand cursor</t>
+  </si>
+  <si>
+    <t>TC 34</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. hover over</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cart"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrow cursor doesn't change to hand cursor</t>
+  </si>
+  <si>
+    <t>verify if username field is working</t>
+  </si>
+  <si>
+    <t>verify if password field is working</t>
+  </si>
+  <si>
+    <t>TC 35</t>
+  </si>
+  <si>
+    <t>verify if the filter button is enabled</t>
+  </si>
+  <si>
+    <r>
+      <t>1. login with valid credentials
+2. hover over</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>verify if the cart button is enabled</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Menu button is enabled</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Cart button is enabled</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Filter button is enabled</t>
+  </si>
+  <si>
+    <t>TC 36</t>
+  </si>
+  <si>
+    <t>verify if the menu button is working</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. login with valid credentials
+2. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Menu" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Products page is opened
+Navigation menu is visible</t>
+  </si>
+  <si>
+    <t>User will see the left navigation menu</t>
+  </si>
+  <si>
+    <t>TC 37</t>
+  </si>
+  <si>
+    <t>verify if the cart button is working</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. login with valid credentials
+2. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Cart" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Products page is opened
+Your Cart page is opened</t>
+  </si>
+  <si>
+    <t>User is redirected to the cart page</t>
+  </si>
+  <si>
+    <t>TC 38</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. login with valid credentials
+2. click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Filter" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Products page is opened
+Filter options are visible</t>
+  </si>
+  <si>
+    <t>User will see filter options</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,20 +2447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2188,10 +2547,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2201,7 +2560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2270,11 +2629,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2282,38 +2641,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2598,42 +2936,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CL29"/>
+  <dimension ref="A1:CL28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
     <col min="6" max="6" width="57" customWidth="1"/>
     <col min="7" max="7" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="14"/>
@@ -2648,123 +2986,60 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:90" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-    </row>
-    <row r="3" spans="1:90" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+    </row>
+    <row r="3" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -2844,22 +3119,22 @@
       <c r="CK3" s="14"/>
       <c r="CL3" s="14"/>
     </row>
-    <row r="4" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -2945,23 +3220,24 @@
       <c r="CK4" s="14"/>
       <c r="CL4" s="14"/>
     </row>
-    <row r="5" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>144</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3046,22 +3322,22 @@
       <c r="CK5" s="14"/>
       <c r="CL5" s="14"/>
     </row>
-    <row r="6" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="14"/>
@@ -3148,24 +3424,24 @@
       <c r="CK6" s="14"/>
       <c r="CL6" s="14"/>
     </row>
-    <row r="7" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -3177,97 +3453,25 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
-      <c r="BM7" s="14"/>
-      <c r="BN7" s="14"/>
-      <c r="BO7" s="14"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="14"/>
-      <c r="BR7" s="14"/>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="14"/>
-      <c r="BU7" s="14"/>
-      <c r="BV7" s="14"/>
-      <c r="BW7" s="14"/>
-      <c r="BX7" s="14"/>
-      <c r="BY7" s="14"/>
-      <c r="BZ7" s="14"/>
-      <c r="CA7" s="14"/>
-      <c r="CB7" s="14"/>
-      <c r="CC7" s="14"/>
-      <c r="CD7" s="14"/>
-      <c r="CE7" s="14"/>
-      <c r="CF7" s="14"/>
-      <c r="CG7" s="14"/>
-      <c r="CH7" s="14"/>
-      <c r="CI7" s="14"/>
-      <c r="CJ7" s="14"/>
-      <c r="CK7" s="14"/>
-      <c r="CL7" s="14"/>
-    </row>
-    <row r="8" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:90" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -3279,23 +3483,95 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:90" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+    </row>
+    <row r="9" spans="1:90" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="14"/>
@@ -3382,24 +3658,24 @@
       <c r="CK9" s="14"/>
       <c r="CL9" s="14"/>
     </row>
-    <row r="10" spans="1:90" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3484,22 +3760,22 @@
       <c r="CK10" s="14"/>
       <c r="CL10" s="14"/>
     </row>
-    <row r="11" spans="1:90" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3513,97 +3789,25 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
-      <c r="BM11" s="14"/>
-      <c r="BN11" s="14"/>
-      <c r="BO11" s="14"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="14"/>
-      <c r="BR11" s="14"/>
-      <c r="BS11" s="14"/>
-      <c r="BT11" s="14"/>
-      <c r="BU11" s="14"/>
-      <c r="BV11" s="14"/>
-      <c r="BW11" s="14"/>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="14"/>
-      <c r="BZ11" s="14"/>
-      <c r="CA11" s="14"/>
-      <c r="CB11" s="14"/>
-      <c r="CC11" s="14"/>
-      <c r="CD11" s="14"/>
-      <c r="CE11" s="14"/>
-      <c r="CF11" s="14"/>
-      <c r="CG11" s="14"/>
-      <c r="CH11" s="14"/>
-      <c r="CI11" s="14"/>
-      <c r="CJ11" s="14"/>
-      <c r="CK11" s="14"/>
-      <c r="CL11" s="14"/>
-    </row>
-    <row r="12" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:90" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3616,24 +3820,24 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3646,22 +3850,22 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:90" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3676,23 +3880,17 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:90" s="13" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
+    <row r="15" spans="1:90" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3706,17 +3904,23 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:90" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+    <row r="16" spans="1:90" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -3730,160 +3934,160 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
       <c r="B23" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -3898,22 +4102,22 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -3928,22 +4132,22 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -3958,22 +4162,22 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -3991,19 +4195,19 @@
     <row r="28" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -4018,51 +4222,9 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.05" top="0.04" bottom="0.01" header="0" footer="0"/>
@@ -4087,58 +4249,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4148,41 +4310,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C324449E-443A-437C-A40E-C012BA507075}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="31.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="5"/>
@@ -4197,12 +4361,12 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4221,24 +4385,24 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4251,24 +4415,24 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -4281,26 +4445,26 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -4314,160 +4478,278 @@
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>113</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
+    <row r="12" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="34"/>
+    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34"/>
+    <row r="15" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F8FE076-9F78-4137-8058-EEB487AF5931}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7F8FE076-9F78-4137-8058-EEB487AF5931}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/manual test case for web page.xlsx
+++ b/manual test case for web page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\manuelno testiranje\Swag Labs manual testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CEF4BB-835F-4DA5-BBE5-946BF63B578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072CEB1-D6F0-4DB4-866C-35AD8C7D815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="198">
   <si>
     <t>TestSuit LOGIN PAGE</t>
   </si>
@@ -2395,6 +2393,23 @@
   </si>
   <si>
     <t>User will see filter options</t>
+  </si>
+  <si>
+    <t>TC 39</t>
+  </si>
+  <si>
+    <t>verify if the items are presente</t>
+  </si>
+  <si>
+    <t>1. login with valid credentials
+2. check if the items are visible</t>
+  </si>
+  <si>
+    <t>Products page is opened
+Items are visible</t>
+  </si>
+  <si>
+    <t>User will see items displayed</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2635,23 +2650,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2939,7 +2948,7 @@
   <dimension ref="A1:CL28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2987,7 +2996,7 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:90" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -3884,13 +3893,13 @@
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -4314,7 +4323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,13 +4374,13 @@
       <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="23"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -4456,15 +4465,15 @@
       <c r="D5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>152</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -4486,15 +4495,13 @@
       <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -4507,15 +4514,13 @@
       <c r="D7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -4528,15 +4533,13 @@
       <c r="D8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>155</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>156</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -4549,15 +4552,13 @@
       <c r="D9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -4570,15 +4571,13 @@
       <c r="D10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -4591,7 +4590,7 @@
       <c r="D11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -4610,7 +4609,7 @@
       <c r="D12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="27" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -4628,7 +4627,7 @@
       <c r="D13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="27" t="s">
         <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -4647,7 +4646,7 @@
       <c r="D14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -4666,7 +4665,7 @@
       <c r="D15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="27" t="s">
         <v>191</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -4674,7 +4673,23 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
